--- a/data/income_statement/2digits/size/78_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/78_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>78-Employment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>78-Employment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>102542.71238</v>
+        <v>99729.08835999999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>133757.13129</v>
+        <v>132231.60506</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>171368.58519</v>
+        <v>175174.66606</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>243926.89967</v>
+        <v>243586.34595</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>167988.51237</v>
+        <v>168611.39755</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>229273.36545</v>
+        <v>226766.7771</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>244267.88529</v>
+        <v>267675.33045</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>297587.62036</v>
+        <v>303486.60194</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>551179.3602400001</v>
+        <v>614819.58947</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>696902.82926</v>
+        <v>761005.4859600001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>994787.9326199999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1130088.04883</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1364389.601</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>95500.20487999999</v>
+        <v>92850.01013000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>124233.11361</v>
+        <v>122693.37008</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>158550.21478</v>
+        <v>162261.66238</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>157902.00825</v>
+        <v>157570.33505</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>152413.34948</v>
+        <v>153625.87518</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>196440.75001</v>
+        <v>194145.01132</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>223342.34436</v>
+        <v>243842.55247</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>282994.01007</v>
+        <v>283430.3929100001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>526380.7358800001</v>
+        <v>575605.7604499999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>619627.18087</v>
+        <v>678486.13144</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>928920.4694000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1055725.42137</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1275283.023</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1321.78809</v>
+        <v>1158.35882</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>3604.9881</v>
@@ -1046,184 +962,209 @@
         <v>18984.27765</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5775.03346</v>
+        <v>7846.2084</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4164.01295</v>
+        <v>10089.58498</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>10374.72776</v>
+        <v>13881.70746</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>35126.38495</v>
+        <v>35008.04625</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10100.71872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10032.68845</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>15800.538</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>5720.719409999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5919.02958</v>
+        <v>5933.24688</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7725.23039</v>
+        <v>7819.86366</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>10870.36133</v>
+        <v>10861.48081</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>9959.35657</v>
+        <v>9369.716050000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>13848.33779</v>
+        <v>13637.48813</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>15150.50747</v>
+        <v>15986.56958</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>10429.59734</v>
+        <v>9966.624049999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>14423.8966</v>
+        <v>25332.12156</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>42149.26344</v>
+        <v>47511.30826999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>55766.7445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>64329.93900999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>73306.03999999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>412.10067</v>
+        <v>329.56309</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1017.26847</v>
+        <v>1008.68897</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>902.1426299999999</v>
+        <v>908.3713999999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>852.9157899999999</v>
+        <v>841.73757</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>1776.69453</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1783.00286</v>
+        <v>1419.30313</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>554.8917299999999</v>
+        <v>895.81565</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1862.2334</v>
+        <v>1776.28498</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>988.8728799999999</v>
+        <v>2580.65325</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1339.55096</v>
+        <v>6097.62816</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>14184.47625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>25198.76428</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>8501.851000000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>356.37163</v>
+        <v>309.7049</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>530.5343399999999</v>
+        <v>521.95484</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>605.80702</v>
+        <v>612.03597</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>765.8075200000001</v>
+        <v>755.0062999999999</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>1725.18291</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1753.8342</v>
+        <v>1382.98674</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>409.33216</v>
+        <v>750.25608</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1758.85187</v>
+        <v>1719.88258</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>985.49657</v>
+        <v>1477.87655</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1207.02506</v>
+        <v>2151.57154</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>13860.83541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16878.15548</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>7885.92</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>41.98904</v>
+        <v>19.55819</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>486.13657</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>288.75631</v>
+        <v>288.75613</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>86.87227</v>
+        <v>86.49527</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>39.45612000000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>29.06713</v>
+        <v>36.21486</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>60.2031</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>85.35786</v>
+        <v>38.54154</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1.01449</v>
+        <v>1098.36631</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>125.90317</v>
+        <v>3935.56412</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>51.895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8094.39381</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>79.491</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>13.74</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>0.59756</v>
@@ -1244,100 +1185,115 @@
         <v>85.35647</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>18.02367</v>
+        <v>17.86086</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2.36182</v>
+        <v>4.41039</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6.62273</v>
+        <v>10.4925</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>271.74584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>226.21499</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>536.4400000000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>102130.61171</v>
+        <v>99399.52527000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>132739.86282</v>
+        <v>131222.91609</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>170466.44256</v>
+        <v>174266.29466</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>243073.98388</v>
+        <v>242744.60838</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>166211.81784</v>
+        <v>166834.70302</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>227490.36259</v>
+        <v>225347.47397</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>243712.99356</v>
+        <v>266779.5148</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>295725.38696</v>
+        <v>301710.31696</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>550190.48736</v>
+        <v>612238.93622</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>695563.2783</v>
+        <v>754907.8578</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>980603.4563700001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1104889.28455</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1355887.75</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>81417.90523999999</v>
+        <v>79807.97427999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>97284.84492</v>
+        <v>96257.60244999999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>122814.40218</v>
+        <v>125873.9049</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>196386.85487</v>
+        <v>197591.38913</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>120364.68127</v>
+        <v>121632.83655</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>166689.81723</v>
+        <v>165206.93223</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>191696.01587</v>
+        <v>207789.432</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>235215.61852</v>
+        <v>243725.78131</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>478867.64765</v>
+        <v>529783.41958</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>558698.15966</v>
+        <v>603941.26443</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>793348.88261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>875915.0827</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1050585.194</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2805.4141</v>
@@ -1352,109 +1308,124 @@
         <v>2145.7714</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3937.54623</v>
+        <v>3783.84518</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>975.0345399999999</v>
+        <v>897.7727899999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7975.877530000001</v>
+        <v>7627.52079</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2649.68064</v>
+        <v>2966.14522</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7423.79477</v>
+        <v>9457.232479999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>11877.99326</v>
+        <v>11879.74223</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14190.44111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13671.44111</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>41428.57</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3434.68205</v>
+        <v>3274.21274</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>6667.36681</v>
+        <v>5738.59745</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>9181.158950000001</v>
+        <v>9447.676440000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>79121.0895</v>
+        <v>78952.73570999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>14449.99147</v>
+        <v>14277.30397</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>18861.23236</v>
+        <v>18002.56309</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>26475.2098</v>
+        <v>30547.52057</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>52483.48681</v>
+        <v>54435.07239</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>194022.89178</v>
+        <v>226361.63863</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>120965.29183</v>
+        <v>124081.52828</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>160599.26729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>171303.25106</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>190129.094</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>75175.79031</v>
+        <v>73726.32866</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>84453.19024000001</v>
+        <v>84354.71713</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>108875.29112</v>
+        <v>111668.27635</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>115029.38867</v>
+        <v>116402.27672</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>101977.14357</v>
+        <v>103571.6874</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>146349.16506</v>
+        <v>145802.21108</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>157021.65209</v>
+        <v>169480.52097</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>176441.27856</v>
+        <v>182683.39119</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>277069.17219</v>
+        <v>293724.21651</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>423758.2220299999</v>
+        <v>465883.34138</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>612385.60808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>686226.24787</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>816947.708</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2.01878</v>
@@ -1475,103 +1446,118 @@
         <v>504.38527</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>223.27645</v>
+        <v>133.86967</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>3641.17251</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>351.78891</v>
+        <v>240.33196</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>2096.65254</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>6173.56613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4714.14266</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2079.822</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>20712.70647</v>
+        <v>19591.55099</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>35455.0179</v>
+        <v>34965.31364</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>47652.04038</v>
+        <v>48392.38976</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>46687.12901</v>
+        <v>45153.21925</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>45847.13657</v>
+        <v>45201.86647</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>60800.54536</v>
+        <v>60140.54174</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>52016.97769</v>
+        <v>58990.0828</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>60509.76844000001</v>
+        <v>57984.53565000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>71322.83971</v>
+        <v>82455.51664</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>136865.11864</v>
+        <v>150966.59337</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>187254.57376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>228974.20185</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>305302.556</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>19229.29414</v>
+        <v>16761.71491</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>28322.5417</v>
+        <v>27778.89093</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>39075.72319</v>
+        <v>38580.59171</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>32593.91637</v>
+        <v>31554.35475</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>34708.2725</v>
+        <v>33459.33963</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>48773.0272</v>
+        <v>45868.69059000001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>42851.49596</v>
+        <v>46452.97489</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>50240.10371</v>
+        <v>48028.37226</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>63267.25632</v>
+        <v>70266.91150000002</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>123352.47453</v>
+        <v>142408.10618</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>173451.91023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>204676.57853</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>246288.74</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1592,7 +1578,7 @@
         <v>1.51225</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>0</v>
+        <v>0.01134</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>202.90162</v>
@@ -1601,175 +1587,200 @@
         <v>401.72638</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2642.06848</v>
+        <v>2570.10314</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2101.28491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2101.87218</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5171.024</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3280.85625</v>
+        <v>3221.60466</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3449.87222</v>
+        <v>3382.65572</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6827.907319999999</v>
+        <v>6760.23929</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>9949.71019</v>
+        <v>9749.63091</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4901.5999</v>
+        <v>4847.099929999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>5945.579400000001</v>
+        <v>5926.73049</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6922.443600000001</v>
+        <v>8491.40848</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8925.04882</v>
+        <v>8748.195230000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>5763.09144</v>
+        <v>9895.479599999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9831.91108</v>
+        <v>15820.45778</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>18312.89803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23689.26289</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>23420.806</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>15948.43789</v>
+        <v>13540.11025</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>24757.86668</v>
+        <v>24281.43241</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>32225.81694</v>
+        <v>31798.35349</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>22642.28951</v>
+        <v>21802.80717</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>29806.6726</v>
+        <v>28612.2397</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>42825.93554999999</v>
+        <v>39940.44785</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>35929.05236</v>
+        <v>37961.55507</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>41112.15327</v>
+        <v>39077.27540999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>57102.4385</v>
+        <v>59969.70552</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>110878.49497</v>
+        <v>124017.54526</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>153037.72729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>178885.44346</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>217696.91</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1483.41233</v>
+        <v>2829.83608</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>7132.4762</v>
+        <v>7186.42271</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>8576.31719</v>
+        <v>9811.798049999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>14093.21264</v>
+        <v>13598.8645</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>11138.86407</v>
+        <v>11742.52684</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>12027.51816</v>
+        <v>14271.85115</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>9165.481730000001</v>
+        <v>12537.10791</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>10269.66473</v>
+        <v>9956.163389999998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>8055.583390000001</v>
+        <v>12188.60514</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>13512.64411</v>
+        <v>8558.48719</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>13802.66353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>24297.62332</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>59013.816</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2373.29757</v>
+        <v>1588.76849</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1800.06353</v>
+        <v>1805.01534</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3194.87225</v>
+        <v>3682.81695</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4383.668610000001</v>
+        <v>3784.66327</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3597.1929</v>
+        <v>3653.91884</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6692.95627</v>
+        <v>3611.58579</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4844.801820000001</v>
+        <v>4803.44651</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5636.098440000001</v>
+        <v>8551.4151</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8970.75483</v>
+        <v>12865.25324</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>46766.41644</v>
+        <v>47509.17811</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>30852.17726</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>28713.89419</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>35194.594</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>8.18817</v>
+        <v>2.93817</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>4.21048</v>
@@ -1784,10 +1795,10 @@
         <v>18.89919</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1042.81221</v>
+        <v>870.88409</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>116.95372</v>
+        <v>266.31173</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>90.70236</v>
@@ -1799,13 +1810,18 @@
         <v>70.55372</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3.82272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>113.82443</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6.203</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,10 +1839,10 @@
         <v>119.43031</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2339.5557</v>
+        <v>52.6557</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>641.9111</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0.50614</v>
@@ -1838,55 +1854,65 @@
         <v>1.2715</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2543.53624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2465.21855</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>7188.291</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>159.40159</v>
+        <v>157.39141</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>386.02799</v>
+        <v>390.9997099999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>588.8611099999999</v>
+        <v>596.1628900000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1018.2688</v>
+        <v>1003.6127</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>878.0661600000001</v>
+        <v>956.04122</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1335.72163</v>
+        <v>788.87954</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>749.57286</v>
+        <v>820.6903199999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1049.33821</v>
+        <v>1217.24722</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1393.01608</v>
+        <v>1890.56286</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1537.27331</v>
+        <v>2248.41927</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2273.1145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2557.07511</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2964.048</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1.61049</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>32.6205</v>
@@ -1913,16 +1939,21 @@
         <v>12.07163</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>0</v>
+        <v>2.2239</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>27.22435</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>12.24633</v>
@@ -1946,7 +1977,7 @@
         <v>13.32867</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>70.77486999999999</v>
+        <v>67.23487</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>83.84442999999999</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>767.1741500000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>45.165</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>186.5184</v>
+        <v>185.72341</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>44.60936</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>80.21767</v>
+        <v>79.99227999999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>109.80148</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>82.16002</v>
+        <v>81.93536</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>94.87103999999999</v>
+        <v>94.63200000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>77.72374000000001</v>
+        <v>77.18325</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>78.09586</v>
+        <v>74.88372</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>145.97439</v>
+        <v>145.69848</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>247.68944</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>258.89834</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>258.54171</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>164.721</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1152.31361</v>
+        <v>508.34703</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>845.78057</v>
+        <v>845.7606599999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1514.475</v>
+        <v>1997.8835</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1879.92434</v>
+        <v>1295.57549</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1208.23997</v>
+        <v>1189.13995</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1112.0096</v>
+        <v>1060.8145</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1312.67682</v>
+        <v>1719.95936</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1912.33889</v>
+        <v>5810.020759999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1998.53508</v>
+        <v>6465.105489999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>37855.31021</v>
+        <v>39109.25499</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>15871.20965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>15373.9583</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>19629.06</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>28.24607</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>108.523</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2108,94 +2159,109 @@
         <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>10.18199</v>
+        <v>36.96631</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>853.0189799999999</v>
+        <v>722.1221400000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>475.2151500000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>875.8232999999999</v>
+        <v>873.28311</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1323.68719</v>
+        <v>1323.6868</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1210.11536</v>
+        <v>1208.19092</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>717.95264</v>
+        <v>693.68651</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1930.70166</v>
+        <v>1904.03993</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2434.34211</v>
+        <v>1290.82003</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5108.76771</v>
+        <v>4039.42484</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7044.136270000001</v>
+        <v>5792.79898</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9078.95124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7122.63152</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5088.583</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>787.4431699999999</v>
+        <v>684.5266</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>905.3870499999999</v>
+        <v>849.02113</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1073.87583</v>
+        <v>1234.16204</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4660.60448</v>
+        <v>4407.347489999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>680.7787</v>
+        <v>671.56765</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2006.19031</v>
+        <v>1997.92461</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2317.27305</v>
+        <v>2654.95942</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2861.15078</v>
+        <v>5055.19326</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4458.02325</v>
+        <v>7955.859030000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>59540.69191</v>
+        <v>59983.78513</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>28544.37671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>26730.59224</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>49373.498</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1.36647</v>
@@ -2204,7 +2270,7 @@
         <v>0.01458</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>0.07239</v>
+        <v>13.22239</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>43.6794</v>
@@ -2219,28 +2285,33 @@
         <v>0.88954</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2.48507</v>
+        <v>1.88598</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1.74048</v>
+        <v>8.87608</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14.32807</v>
+        <v>21.84332</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>131.984</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>144.84216</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>32.144</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>54.58974</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>194.89253</v>
+        <v>138.52661</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>180.8838</v>
@@ -2258,7 +2329,7 @@
         <v>279.23546</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>393.49612</v>
+        <v>389.95612</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>314.32073</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>51.94508999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>949.837</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.40562</v>
@@ -2297,10 +2373,10 @@
         <v>13.06638</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1.46099</v>
+        <v>1.19304</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0.01815</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.058</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>580.9317000000001</v>
+        <v>478.01513</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>621.0764099999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>759.50075</v>
+        <v>906.6369599999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4547.43684</v>
+        <v>4308.105079999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>310.13253</v>
+        <v>301.22273</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1446.55636</v>
+        <v>1438.29067</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>279.94073</v>
+        <v>631.96885</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1504.93011</v>
+        <v>3709.02491</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1941.64322</v>
+        <v>5581.01139</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>56573.32365999999</v>
+        <v>57656.21325</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>23680.06413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>21782.52915</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>47308.678</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>84.05722</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>56.999</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>2.92312</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>149.14964</v>
@@ -2441,112 +2537,127 @@
         <v>113.74676</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>43.53617</v>
+        <v>29.61094</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>66.89556</v>
+        <v>66.59430999999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>440.73447</v>
+        <v>440.73446</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1744.14094</v>
+        <v>1729.79919</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>958.77849</v>
+        <v>953.13321</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2200.30067</v>
+        <v>2051.65083</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2648.16762</v>
+        <v>2000.856</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4593.40315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4664.2955</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1024.782</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>831.6180499999999</v>
+        <v>599.65615</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>519.28525</v>
+        <v>517.9333300000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>737.62437</v>
+        <v>1661.62448</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>681.44452</v>
+        <v>659.6811700000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>611.8251899999999</v>
+        <v>475.39062</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1105.42427</v>
+        <v>828.6774499999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>556.5315000000001</v>
+        <v>1437.7432</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1194.73453</v>
+        <v>1520.06849</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1457.43324</v>
+        <v>2491.2654</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4331.01748</v>
+        <v>5215.85091</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7733.63934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9612.462320000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9106.683999999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>826.15091</v>
+        <v>594.1890100000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>515.7958599999999</v>
+        <v>514.44394</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>711.1279300000001</v>
+        <v>1635.12804</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>631.4658499999999</v>
+        <v>609.7025</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>611.8251899999999</v>
+        <v>475.39062</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1105.42427</v>
+        <v>828.6774499999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>556.5315000000001</v>
+        <v>1295.95849</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1189.11502</v>
+        <v>1520.06849</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1210.87526</v>
+        <v>2244.70742</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4132.077600000001</v>
+        <v>5016.911029999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7577.738959999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>9596.516969999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>8923.91</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5.467140000000001</v>
@@ -2567,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>0</v>
+        <v>141.78471</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5.61951</v>
+        <v>0</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>246.55798</v>
@@ -2579,91 +2690,106 @@
         <v>198.93988</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>155.90038</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>15.94535</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>182.774</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2237.64868</v>
+        <v>3134.42182</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>7507.867429999999</v>
+        <v>7624.48359</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9959.68924</v>
+        <v>10598.82848</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>13134.83225</v>
+        <v>12316.49911</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>13443.45308</v>
+        <v>14249.48741</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>15608.85985</v>
+        <v>15056.83488</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>11136.479</v>
+        <v>13247.8518</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>11849.87786</v>
+        <v>11932.31674</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>11110.88173</v>
+        <v>14606.73395</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-3592.648839999998</v>
+        <v>-9131.970739999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>8376.82474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>16668.46295</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>35728.228</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2598.93624</v>
+        <v>230.1634</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>627.0223599999999</v>
+        <v>617.52112</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1689.87743</v>
+        <v>1814.40773</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>936.21536</v>
+        <v>987.28964</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2318.38273</v>
+        <v>1010.11301</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1254.8142</v>
+        <v>1193.82007</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1528.8184</v>
+        <v>1706.60592</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3850.11995</v>
+        <v>2662.49339</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2078.89061</v>
+        <v>2099.36901</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3068.97636</v>
+        <v>3046.76583</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>12417.8839</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>9013.460539999998</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8155.245</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>15.67456</v>
@@ -2681,109 +2807,124 @@
         <v>2.98894</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1.92874</v>
+        <v>1.7405</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>15.0477</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>248.865</v>
+        <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>130.80723</v>
+        <v>112.51279</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>44.282</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1066.1421</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1066.05024</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>463.678</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2583.26168</v>
+        <v>214.48884</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>626.4989300000001</v>
+        <v>616.99769</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1655.65207</v>
+        <v>1780.18237</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>928.62643</v>
+        <v>979.7007100000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2315.39379</v>
+        <v>1007.12407</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1252.88546</v>
+        <v>1192.07957</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1513.7707</v>
+        <v>1691.55822</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3601.25495</v>
+        <v>2662.49339</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1948.08338</v>
+        <v>1986.85622</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3024.69436</v>
+        <v>3002.48383</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>11351.7418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7947.4103</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7691.567</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>417.90065</v>
+        <v>333.7794</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1337.09307</v>
+        <v>1299.51496</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4414.59794</v>
+        <v>4552.398689999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1590.45085</v>
+        <v>1449.89968</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1029.64634</v>
+        <v>540.8035800000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9488.044800000001</v>
+        <v>7245.948530000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>580.0087600000001</v>
+        <v>1107.40473</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>6249.283609999999</v>
+        <v>5319.370269999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1300.52401</v>
+        <v>1419.80778</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>27181.1777</v>
+        <v>8889.101809999998</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5961.28206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3880.10382</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7830.048</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>46.37113</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>83.96935000000001</v>
@@ -2801,7 +2942,7 @@
         <v>43.70786</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>0</v>
+        <v>270.47709</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>412</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>14.10523</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>44.89165</v>
+        <v>38.76841</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>762.07251</v>
@@ -2831,187 +2977,210 @@
         <v>68.49692999999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>202.10926</v>
+        <v>85.72078</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>71.30933</v>
+        <v>70.52229</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>182.30048</v>
+        <v>228.85517</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7.51681</v>
+        <v>27.03604</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>449.68442</v>
+        <v>86.31164</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>0.79734</v>
+        <v>6.02425</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>244.80796</v>
+        <v>242.48516</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>364.268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>360.0379899999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1591.406</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>326.63787</v>
+        <v>295.01099</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>491.05121</v>
+        <v>453.4731</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>4346.101009999999</v>
+        <v>4483.90176</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1388.34159</v>
+        <v>1364.1789</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>958.33701</v>
+        <v>470.28129</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>9262.036459999999</v>
+        <v>6973.3855</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>572.49195</v>
+        <v>809.8915999999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5387.59919</v>
+        <v>4821.05863</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1299.72667</v>
+        <v>1413.78353</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>26935.30604</v>
+        <v>8645.552949999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5582.90883</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3505.9606</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6233.632</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4418.68427</v>
+        <v>3030.80582</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6797.796719999999</v>
+        <v>6942.48975</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>7234.968730000001</v>
+        <v>7860.83752</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>12480.59676</v>
+        <v>11853.88907</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>14732.18947</v>
+        <v>14718.79684</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>7375.62925</v>
+        <v>9004.70642</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>12085.28864</v>
+        <v>13847.05299</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>9450.714199999999</v>
+        <v>9275.439859999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>11889.24833</v>
+        <v>15286.29518</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-27704.85018</v>
+        <v>-14974.30672</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>14833.42658</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>21801.81967</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>36053.425</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1129.67331</v>
+        <v>1035.39927</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2266.66511</v>
+        <v>2186.4499</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2821.76988</v>
+        <v>2846.92911</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3317.86488</v>
+        <v>3207.8676</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3295.45109</v>
+        <v>3029.25794</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4064.5774</v>
+        <v>4027.93673</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2862.24055</v>
+        <v>3161.13146</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3049.37315</v>
+        <v>3094.66406</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4313.14355</v>
+        <v>4704.22746</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6877.80989</v>
+        <v>7067.35026</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>7096.80914</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>7576.406809999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>15251.561</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3289.01096</v>
+        <v>1995.40655</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4531.13161</v>
+        <v>4756.039849999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4413.198850000001</v>
+        <v>5013.90841</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9162.731880000001</v>
+        <v>8646.021470000002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>11436.73838</v>
+        <v>11689.5389</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3311.05185</v>
+        <v>4976.76969</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9223.04809</v>
+        <v>10685.92153</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>6401.34105</v>
+        <v>6180.775799999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>7576.10478</v>
+        <v>10582.06772</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-34582.66007</v>
+        <v>-22041.65698</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>7736.617439999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>14225.41286</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>20801.864</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>600</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>